--- a/data/trumptracker.xlsx
+++ b/data/trumptracker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">InsiderAdvantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarity Labs</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="A172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="A172:L183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6849,6 +6852,462 @@
       </c>
       <c r="L171" s="3" t="n">
         <v>-21</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>-80</v>
+      </c>
+      <c r="L173" s="3" t="n">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="E174" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D175" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>-81</v>
+      </c>
+      <c r="L175" s="3" t="n">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D176" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="E176" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H176" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D177" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H177" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J177" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="K177" s="3" t="n">
+        <v>-84</v>
+      </c>
+      <c r="L177" s="3" t="n">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D178" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="E178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F178" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H178" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D179" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="F179" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="K179" s="3" t="n">
+        <v>-93</v>
+      </c>
+      <c r="L179" s="3" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="E180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D181" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E181" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="F181" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H181" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="K181" s="3" t="n">
+        <v>-91</v>
+      </c>
+      <c r="L181" s="3" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F182" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="F183" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="K183" s="3" t="n">
+        <v>-81</v>
+      </c>
+      <c r="L183" s="3" t="n">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +7329,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A172:L183 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/trumptracker.xlsx
+++ b/data/trumptracker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -357,10 +357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="A172:L183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C188" activeCellId="0" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7308,6 +7308,82 @@
       </c>
       <c r="L183" s="3" t="n">
         <v>-20</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="E184" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="F184" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="K185" s="3" t="n">
+        <v>-98</v>
+      </c>
+      <c r="L185" s="3" t="n">
+        <v>-37</v>
       </c>
     </row>
   </sheetData>
@@ -7329,7 +7405,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A172:L183 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
